--- a/pre-dive/County Data Combined.xlsx
+++ b/pre-dive/County Data Combined.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacecco/Documents/Di.Co.Im./GitHub projects/Centrepoint/pre-dive/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8720" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="8720" yWindow="460" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Query 1 Eligibility" sheetId="1" r:id="rId1"/>
@@ -14,16 +19,13 @@
     <sheet name="Query 5 Factors recorded " sheetId="8" r:id="rId5"/>
     <sheet name="Query 6  Your Data systems" sheetId="9" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Query 1 Eligibility'!$D$3:$E$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Query 2 Prevention and relief'!$C$4:$D$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Query 3 Need '!$B$5:$C$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Query 5 Factors recorded '!$C$3:$D$3</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3435" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="137">
   <si>
     <t>Age group</t>
   </si>
@@ -406,6 +408,45 @@
   <si>
     <t>Gloucestershire</t>
   </si>
+  <si>
+    <t>E10000011</t>
+  </si>
+  <si>
+    <t>E10000014</t>
+  </si>
+  <si>
+    <t>E10000016</t>
+  </si>
+  <si>
+    <t>E10000018</t>
+  </si>
+  <si>
+    <t>E10000021</t>
+  </si>
+  <si>
+    <t>E10000025</t>
+  </si>
+  <si>
+    <t>E10000027</t>
+  </si>
+  <si>
+    <t>E10000034</t>
+  </si>
+  <si>
+    <t>E10000006</t>
+  </si>
+  <si>
+    <t>E10000032</t>
+  </si>
+  <si>
+    <t>E10000013</t>
+  </si>
+  <si>
+    <t>E10000015</t>
+  </si>
+  <si>
+    <t>E10000023</t>
+  </si>
 </sst>
 </file>
 
@@ -707,6 +748,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -728,12 +772,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -743,12 +781,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="82">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -852,2878 +893,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ALL_TYPES"/>
-      <sheetName val="districts"/>
-      <sheetName val="counties"/>
-      <sheetName val="regions"/>
-      <sheetName val="LA_ONS"/>
-      <sheetName val="ONS_LAcode_changes"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>lookup names (simple)</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>ONS_CODE</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>Buckinghamshire</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>E10000002</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>Cambridgeshire</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>E10000003</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>Cumbria</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>E10000006</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>Derbyshire</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>E10000007</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6" t="str">
-            <v>Devon</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>E10000008</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7" t="str">
-            <v>Dorset</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>E10000009</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>East Sussex</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>E10000011</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>Essex</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>E10000012</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>Gloucestershire</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>E10000013</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v>Hampshire</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>E10000014</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>Hertfordshire</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>E10000015</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>Kent</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v>E10000016</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>Lancashire</v>
-          </cell>
-          <cell r="E14" t="str">
-            <v>E10000017</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15" t="str">
-            <v>Leicestershire</v>
-          </cell>
-          <cell r="E15" t="str">
-            <v>E10000018</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16" t="str">
-            <v>Lincolnshire</v>
-          </cell>
-          <cell r="E16" t="str">
-            <v>E10000019</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17" t="str">
-            <v>Norfolk</v>
-          </cell>
-          <cell r="E17" t="str">
-            <v>E10000020</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18" t="str">
-            <v>Northamptonshire</v>
-          </cell>
-          <cell r="E18" t="str">
-            <v>E10000021</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19" t="str">
-            <v>North Yorkshire</v>
-          </cell>
-          <cell r="E19" t="str">
-            <v>E10000023</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20" t="str">
-            <v>Nottinghamshire</v>
-          </cell>
-          <cell r="E20" t="str">
-            <v>E10000024</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21" t="str">
-            <v>Oxfordshire</v>
-          </cell>
-          <cell r="E21" t="str">
-            <v>E10000025</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22" t="str">
-            <v>Somerset</v>
-          </cell>
-          <cell r="E22" t="str">
-            <v>E10000027</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>Staffordshire</v>
-          </cell>
-          <cell r="E23" t="str">
-            <v>E10000028</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>Suffolk</v>
-          </cell>
-          <cell r="E24" t="str">
-            <v>E10000029</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25" t="str">
-            <v>Surrey</v>
-          </cell>
-          <cell r="E25" t="str">
-            <v>E10000030</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26" t="str">
-            <v>Warwickshire</v>
-          </cell>
-          <cell r="E26" t="str">
-            <v>E10000031</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27" t="str">
-            <v>Worcestershire</v>
-          </cell>
-          <cell r="E27" t="str">
-            <v>E10000034</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28" t="str">
-            <v>South Bucks</v>
-          </cell>
-          <cell r="E28" t="str">
-            <v>E07000006</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29" t="str">
-            <v>Chiltern</v>
-          </cell>
-          <cell r="E29" t="str">
-            <v>E07000005</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30" t="str">
-            <v>Wycombe</v>
-          </cell>
-          <cell r="E30" t="str">
-            <v>E07000007</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31" t="str">
-            <v>Aylesbury Vale</v>
-          </cell>
-          <cell r="E31" t="str">
-            <v>E07000004</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32" t="str">
-            <v>Cambridge</v>
-          </cell>
-          <cell r="E32" t="str">
-            <v>E07000008</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33" t="str">
-            <v>South Cambridgeshire</v>
-          </cell>
-          <cell r="E33" t="str">
-            <v>E07000012</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34" t="str">
-            <v>Huntingdonshire</v>
-          </cell>
-          <cell r="E34" t="str">
-            <v>E07000011</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35" t="str">
-            <v>Fenland</v>
-          </cell>
-          <cell r="E35" t="str">
-            <v>E07000010</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36" t="str">
-            <v>East Cambridgeshire</v>
-          </cell>
-          <cell r="E36" t="str">
-            <v>E07000009</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37" t="str">
-            <v>Barrow in Furness</v>
-          </cell>
-          <cell r="E37" t="str">
-            <v>E07000027</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38" t="str">
-            <v>South Lakeland</v>
-          </cell>
-          <cell r="E38" t="str">
-            <v>E07000031</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39" t="str">
-            <v>Copeland</v>
-          </cell>
-          <cell r="E39" t="str">
-            <v>E07000029</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40" t="str">
-            <v>Allerdale</v>
-          </cell>
-          <cell r="E40" t="str">
-            <v>E07000026</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41" t="str">
-            <v>Eden</v>
-          </cell>
-          <cell r="E41" t="str">
-            <v>E07000030</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42" t="str">
-            <v>Carlisle</v>
-          </cell>
-          <cell r="E42" t="str">
-            <v>E07000028</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43" t="str">
-            <v>High Peak</v>
-          </cell>
-          <cell r="E43" t="str">
-            <v>E07000037</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44" t="str">
-            <v>Derbyshire Dales</v>
-          </cell>
-          <cell r="E44" t="str">
-            <v>E07000035</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45" t="str">
-            <v>South Derbyshire</v>
-          </cell>
-          <cell r="E45" t="str">
-            <v>E07000039</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46" t="str">
-            <v>Erewash</v>
-          </cell>
-          <cell r="E46" t="str">
-            <v>E07000036</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47" t="str">
-            <v>Amber Valley</v>
-          </cell>
-          <cell r="E47" t="str">
-            <v>E07000032</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48" t="str">
-            <v>North East Derbyshire</v>
-          </cell>
-          <cell r="E48" t="str">
-            <v>E07000038</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49" t="str">
-            <v>Chesterfield</v>
-          </cell>
-          <cell r="E49" t="str">
-            <v>E07000034</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50" t="str">
-            <v>Bolsover</v>
-          </cell>
-          <cell r="E50" t="str">
-            <v>E07000033</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51" t="str">
-            <v>Exeter</v>
-          </cell>
-          <cell r="E51" t="str">
-            <v>E07000041</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52" t="str">
-            <v>East Devon</v>
-          </cell>
-          <cell r="E52" t="str">
-            <v>E07000040</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53" t="str">
-            <v>Mid Devon</v>
-          </cell>
-          <cell r="E53" t="str">
-            <v>E07000042</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54" t="str">
-            <v>North Devon</v>
-          </cell>
-          <cell r="E54" t="str">
-            <v>E07000043</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55" t="str">
-            <v>Torridge</v>
-          </cell>
-          <cell r="E55" t="str">
-            <v>E07000046</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56" t="str">
-            <v>West Devon</v>
-          </cell>
-          <cell r="E56" t="str">
-            <v>E07000047</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57" t="str">
-            <v>South Hams</v>
-          </cell>
-          <cell r="E57" t="str">
-            <v>E07000044</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58" t="str">
-            <v>Teignbridge</v>
-          </cell>
-          <cell r="E58" t="str">
-            <v>E07000045</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59" t="str">
-            <v>Weymouth and Portland</v>
-          </cell>
-          <cell r="E59" t="str">
-            <v>E07000053</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60" t="str">
-            <v>West Dorset</v>
-          </cell>
-          <cell r="E60" t="str">
-            <v>E07000052</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61" t="str">
-            <v>North Dorset</v>
-          </cell>
-          <cell r="E61" t="str">
-            <v>E07000050</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62" t="str">
-            <v>Purbeck</v>
-          </cell>
-          <cell r="E62" t="str">
-            <v>E07000051</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63" t="str">
-            <v>East Dorset</v>
-          </cell>
-          <cell r="E63" t="str">
-            <v>E07000049</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64" t="str">
-            <v>Christchurch</v>
-          </cell>
-          <cell r="E64" t="str">
-            <v>E07000048</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65" t="str">
-            <v>Hastings</v>
-          </cell>
-          <cell r="E65" t="str">
-            <v>E07000062</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66" t="str">
-            <v>Rother</v>
-          </cell>
-          <cell r="E66" t="str">
-            <v>E07000064</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67" t="str">
-            <v>Wealden</v>
-          </cell>
-          <cell r="E67" t="str">
-            <v>E07000065</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68" t="str">
-            <v>Eastbourne</v>
-          </cell>
-          <cell r="E68" t="str">
-            <v>E07000061</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69" t="str">
-            <v>Lewes</v>
-          </cell>
-          <cell r="E69" t="str">
-            <v>E07000063</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70" t="str">
-            <v>Harlow</v>
-          </cell>
-          <cell r="E70" t="str">
-            <v>E07000073</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71" t="str">
-            <v>Epping Forest</v>
-          </cell>
-          <cell r="E71" t="str">
-            <v>E07000072</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72" t="str">
-            <v>Brentwood</v>
-          </cell>
-          <cell r="E72" t="str">
-            <v>E07000068</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73" t="str">
-            <v>Basildon</v>
-          </cell>
-          <cell r="E73" t="str">
-            <v>E07000066</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74" t="str">
-            <v>Castle Point</v>
-          </cell>
-          <cell r="E74" t="str">
-            <v>E07000069</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75" t="str">
-            <v>Rochford</v>
-          </cell>
-          <cell r="E75" t="str">
-            <v>E07000075</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76" t="str">
-            <v>Maldon</v>
-          </cell>
-          <cell r="E76" t="str">
-            <v>E07000074</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77" t="str">
-            <v>Chelmsford</v>
-          </cell>
-          <cell r="E77" t="str">
-            <v>E07000070</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78" t="str">
-            <v>Uttlesford</v>
-          </cell>
-          <cell r="E78" t="str">
-            <v>E07000077</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="C79" t="str">
-            <v>Braintree</v>
-          </cell>
-          <cell r="E79" t="str">
-            <v>E07000067</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="C80" t="str">
-            <v>Colchester</v>
-          </cell>
-          <cell r="E80" t="str">
-            <v>E07000071</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="C81" t="str">
-            <v>Tendring</v>
-          </cell>
-          <cell r="E81" t="str">
-            <v>E07000076</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="C82" t="str">
-            <v>Gloucester</v>
-          </cell>
-          <cell r="E82" t="str">
-            <v>E07000081</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="C83" t="str">
-            <v>Tewkesbury</v>
-          </cell>
-          <cell r="E83" t="str">
-            <v>E07000083</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="C84" t="str">
-            <v>Cheltenham</v>
-          </cell>
-          <cell r="E84" t="str">
-            <v>E07000078</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="C85" t="str">
-            <v>Cotswold</v>
-          </cell>
-          <cell r="E85" t="str">
-            <v>E07000079</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="C86" t="str">
-            <v>Stroud</v>
-          </cell>
-          <cell r="E86" t="str">
-            <v>E07000082</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="C87" t="str">
-            <v>Forest of Dean</v>
-          </cell>
-          <cell r="E87" t="str">
-            <v>E07000080</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="C88" t="str">
-            <v>Gosport</v>
-          </cell>
-          <cell r="E88" t="str">
-            <v>E07000088</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="C89" t="str">
-            <v>Fareham</v>
-          </cell>
-          <cell r="E89" t="str">
-            <v>E07000087</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="C90" t="str">
-            <v>Winchester</v>
-          </cell>
-          <cell r="E90" t="str">
-            <v>E07000094</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="C91" t="str">
-            <v>Havant</v>
-          </cell>
-          <cell r="E91" t="str">
-            <v>E07000090</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="C92" t="str">
-            <v>East Hampshire</v>
-          </cell>
-          <cell r="E92" t="str">
-            <v>E07000085</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="C93" t="str">
-            <v>Hart</v>
-          </cell>
-          <cell r="E93" t="str">
-            <v>E07000089</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="C94" t="str">
-            <v>Rushmoor</v>
-          </cell>
-          <cell r="E94" t="str">
-            <v>E07000092</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="C95" t="str">
-            <v>Basingstoke and Deane</v>
-          </cell>
-          <cell r="E95" t="str">
-            <v>E07000084</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="C96" t="str">
-            <v>Test Valley</v>
-          </cell>
-          <cell r="E96" t="str">
-            <v>E07000093</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="C97" t="str">
-            <v>Eastleigh</v>
-          </cell>
-          <cell r="E97" t="str">
-            <v>E07000086</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="C98" t="str">
-            <v>New Forest</v>
-          </cell>
-          <cell r="E98" t="str">
-            <v>E07000091</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="C99" t="str">
-            <v>Three Rivers</v>
-          </cell>
-          <cell r="E99" t="str">
-            <v>E07000102</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="C100" t="str">
-            <v>Watford</v>
-          </cell>
-          <cell r="E100" t="str">
-            <v>E07000103</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="C101" t="str">
-            <v>Hertsmere</v>
-          </cell>
-          <cell r="E101" t="str">
-            <v>E07000098</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="C102" t="str">
-            <v>Welwyn Hatfield</v>
-          </cell>
-          <cell r="E102" t="str">
-            <v>E07000241</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="C103" t="str">
-            <v>Broxbourne</v>
-          </cell>
-          <cell r="E103" t="str">
-            <v>E07000095</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="C104" t="str">
-            <v>East Hertfordshire</v>
-          </cell>
-          <cell r="E104" t="str">
-            <v>E07000242</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="C105" t="str">
-            <v>Stevenage</v>
-          </cell>
-          <cell r="E105" t="str">
-            <v>E07000243</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="C106" t="str">
-            <v>North Hertfordshire</v>
-          </cell>
-          <cell r="E106" t="str">
-            <v>E07000099</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="C107" t="str">
-            <v>St Albans</v>
-          </cell>
-          <cell r="E107" t="str">
-            <v>E07000240</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="C108" t="str">
-            <v>Dacorum</v>
-          </cell>
-          <cell r="E108" t="str">
-            <v>E07000096</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="C109" t="str">
-            <v>Dartford</v>
-          </cell>
-          <cell r="E109" t="str">
-            <v>E07000107</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="C110" t="str">
-            <v>Gravesham</v>
-          </cell>
-          <cell r="E110" t="str">
-            <v>E07000109</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="C111" t="str">
-            <v>Sevenoaks</v>
-          </cell>
-          <cell r="E111" t="str">
-            <v>E07000111</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="C112" t="str">
-            <v>Tonbridge and Malling</v>
-          </cell>
-          <cell r="E112" t="str">
-            <v>E07000115</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="C113" t="str">
-            <v>Tunbridge Wells</v>
-          </cell>
-          <cell r="E113" t="str">
-            <v>E07000116</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="C114" t="str">
-            <v>Maidstone</v>
-          </cell>
-          <cell r="E114" t="str">
-            <v>E07000110</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="C115" t="str">
-            <v>Swale</v>
-          </cell>
-          <cell r="E115" t="str">
-            <v>E07000113</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="C116" t="str">
-            <v>Ashford</v>
-          </cell>
-          <cell r="E116" t="str">
-            <v>E07000105</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="C117" t="str">
-            <v>Shepway</v>
-          </cell>
-          <cell r="E117" t="str">
-            <v>E07000112</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="C118" t="str">
-            <v>Canterbury</v>
-          </cell>
-          <cell r="E118" t="str">
-            <v>E07000106</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="C119" t="str">
-            <v>Dover</v>
-          </cell>
-          <cell r="E119" t="str">
-            <v>E07000108</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="C120" t="str">
-            <v>Thanet</v>
-          </cell>
-          <cell r="E120" t="str">
-            <v>E07000114</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="C121" t="str">
-            <v>West Lancashire</v>
-          </cell>
-          <cell r="E121" t="str">
-            <v>E07000127</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="C122" t="str">
-            <v>Chorley</v>
-          </cell>
-          <cell r="E122" t="str">
-            <v>E07000118</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="C123" t="str">
-            <v>South Ribble</v>
-          </cell>
-          <cell r="E123" t="str">
-            <v>E07000126</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="C124" t="str">
-            <v>Fylde</v>
-          </cell>
-          <cell r="E124" t="str">
-            <v>E07000119</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="C125" t="str">
-            <v>Preston</v>
-          </cell>
-          <cell r="E125" t="str">
-            <v>E07000123</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="C126" t="str">
-            <v>Wyre</v>
-          </cell>
-          <cell r="E126" t="str">
-            <v>E07000128</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="C127" t="str">
-            <v>Lancaster</v>
-          </cell>
-          <cell r="E127" t="str">
-            <v>E07000121</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="C128" t="str">
-            <v>Ribble Valley</v>
-          </cell>
-          <cell r="E128" t="str">
-            <v>E07000124</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="C129" t="str">
-            <v>Pendle</v>
-          </cell>
-          <cell r="E129" t="str">
-            <v>E07000122</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="C130" t="str">
-            <v>Burnley</v>
-          </cell>
-          <cell r="E130" t="str">
-            <v>E07000117</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="C131" t="str">
-            <v>Rossendale</v>
-          </cell>
-          <cell r="E131" t="str">
-            <v>E07000125</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="C132" t="str">
-            <v>Hyndburn</v>
-          </cell>
-          <cell r="E132" t="str">
-            <v>E07000120</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="C133" t="str">
-            <v>Charnwood</v>
-          </cell>
-          <cell r="E133" t="str">
-            <v>E07000130</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="C134" t="str">
-            <v>Melton</v>
-          </cell>
-          <cell r="E134" t="str">
-            <v>E07000133</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="C135" t="str">
-            <v>Harborough</v>
-          </cell>
-          <cell r="E135" t="str">
-            <v>E07000131</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="C136" t="str">
-            <v>Oadby and Wigston</v>
-          </cell>
-          <cell r="E136" t="str">
-            <v>E07000135</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="C137" t="str">
-            <v>Blaby</v>
-          </cell>
-          <cell r="E137" t="str">
-            <v>E07000129</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="C138" t="str">
-            <v>Hinckley and Bosworth</v>
-          </cell>
-          <cell r="E138" t="str">
-            <v>E07000132</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="C139" t="str">
-            <v>North West Leicestershire</v>
-          </cell>
-          <cell r="E139" t="str">
-            <v>E07000134</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="C140" t="str">
-            <v>Lincoln</v>
-          </cell>
-          <cell r="E140" t="str">
-            <v>E07000138</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="C141" t="str">
-            <v>North Kesteven</v>
-          </cell>
-          <cell r="E141" t="str">
-            <v>E07000139</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="C142" t="str">
-            <v>South Kesteven</v>
-          </cell>
-          <cell r="E142" t="str">
-            <v>E07000141</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="C143" t="str">
-            <v>South Holland</v>
-          </cell>
-          <cell r="E143" t="str">
-            <v>E07000140</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="C144" t="str">
-            <v>Boston</v>
-          </cell>
-          <cell r="E144" t="str">
-            <v>E07000136</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="C145" t="str">
-            <v>East Lindsey</v>
-          </cell>
-          <cell r="E145" t="str">
-            <v>E07000137</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="C146" t="str">
-            <v>West Lindsey</v>
-          </cell>
-          <cell r="E146" t="str">
-            <v>E07000142</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="C147" t="str">
-            <v>Norwich</v>
-          </cell>
-          <cell r="E147" t="str">
-            <v>E07000148</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="C148" t="str">
-            <v>South Norfolk</v>
-          </cell>
-          <cell r="E148" t="str">
-            <v>E07000149</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="C149" t="str">
-            <v>Great Yarmouth</v>
-          </cell>
-          <cell r="E149" t="str">
-            <v>E07000145</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="C150" t="str">
-            <v>Broadland</v>
-          </cell>
-          <cell r="E150" t="str">
-            <v>E07000144</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="C151" t="str">
-            <v>North Norfolk</v>
-          </cell>
-          <cell r="E151" t="str">
-            <v>E07000147</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="C152" t="str">
-            <v>Kings Lynn and West Norfolk</v>
-          </cell>
-          <cell r="E152" t="str">
-            <v>E07000146</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="C153" t="str">
-            <v>Breckland</v>
-          </cell>
-          <cell r="E153" t="str">
-            <v>E07000143</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="C154" t="str">
-            <v>South Northamptonshire</v>
-          </cell>
-          <cell r="E154" t="str">
-            <v>E07000155</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="C155" t="str">
-            <v>Northampton</v>
-          </cell>
-          <cell r="E155" t="str">
-            <v>E07000154</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="C156" t="str">
-            <v>Daventry</v>
-          </cell>
-          <cell r="E156" t="str">
-            <v>E07000151</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="C157" t="str">
-            <v>Wellingborough</v>
-          </cell>
-          <cell r="E157" t="str">
-            <v>E07000156</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="C158" t="str">
-            <v>Kettering</v>
-          </cell>
-          <cell r="E158" t="str">
-            <v>E07000153</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="C159" t="str">
-            <v>Corby</v>
-          </cell>
-          <cell r="E159" t="str">
-            <v>E07000150</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="C160" t="str">
-            <v>East Northamptonshire</v>
-          </cell>
-          <cell r="E160" t="str">
-            <v>E07000152</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="C161" t="str">
-            <v>Selby</v>
-          </cell>
-          <cell r="E161" t="str">
-            <v>E07000169</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="C162" t="str">
-            <v>Harrogate</v>
-          </cell>
-          <cell r="E162" t="str">
-            <v>E07000165</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="C163" t="str">
-            <v>Craven</v>
-          </cell>
-          <cell r="E163" t="str">
-            <v>E07000163</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="C164" t="str">
-            <v>Richmondshire</v>
-          </cell>
-          <cell r="E164" t="str">
-            <v>E07000166</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="C165" t="str">
-            <v>Hambleton</v>
-          </cell>
-          <cell r="E165" t="str">
-            <v>E07000164</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="C166" t="str">
-            <v>Ryedale</v>
-          </cell>
-          <cell r="E166" t="str">
-            <v>E07000167</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="C167" t="str">
-            <v>Scarborough</v>
-          </cell>
-          <cell r="E167" t="str">
-            <v>E07000168</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="C168" t="str">
-            <v>Rushcliffe</v>
-          </cell>
-          <cell r="E168" t="str">
-            <v>E07000176</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="C169" t="str">
-            <v>Broxtowe</v>
-          </cell>
-          <cell r="E169" t="str">
-            <v>E07000172</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="C170" t="str">
-            <v>Ashfield</v>
-          </cell>
-          <cell r="E170" t="str">
-            <v>E07000170</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="C171" t="str">
-            <v>Gedling</v>
-          </cell>
-          <cell r="E171" t="str">
-            <v>E07000173</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="C172" t="str">
-            <v>Newark and Sherwood</v>
-          </cell>
-          <cell r="E172" t="str">
-            <v>E07000175</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="C173" t="str">
-            <v>Mansfield</v>
-          </cell>
-          <cell r="E173" t="str">
-            <v>E07000174</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="C174" t="str">
-            <v>Bassetlaw</v>
-          </cell>
-          <cell r="E174" t="str">
-            <v>E07000171</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="C175" t="str">
-            <v>Oxford</v>
-          </cell>
-          <cell r="E175" t="str">
-            <v>E07000178</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="C176" t="str">
-            <v>Cherwell</v>
-          </cell>
-          <cell r="E176" t="str">
-            <v>E07000177</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="C177" t="str">
-            <v>South Oxfordshire</v>
-          </cell>
-          <cell r="E177" t="str">
-            <v>E07000179</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="C178" t="str">
-            <v>Vale of the White Horse</v>
-          </cell>
-          <cell r="E178" t="str">
-            <v>E07000180</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="C179" t="str">
-            <v>West Oxfordshire</v>
-          </cell>
-          <cell r="E179" t="str">
-            <v>E07000181</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="C180" t="str">
-            <v>South Somerset</v>
-          </cell>
-          <cell r="E180" t="str">
-            <v>E07000189</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="C181" t="str">
-            <v>Taunton Deane</v>
-          </cell>
-          <cell r="E181" t="str">
-            <v>E07000190</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="C182" t="str">
-            <v>West Somerset</v>
-          </cell>
-          <cell r="E182" t="str">
-            <v>E07000191</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="C183" t="str">
-            <v>Sedgemoor</v>
-          </cell>
-          <cell r="E183" t="str">
-            <v>E07000188</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="C184" t="str">
-            <v>Mendip</v>
-          </cell>
-          <cell r="E184" t="str">
-            <v>E07000187</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="C185" t="str">
-            <v>Tamworth</v>
-          </cell>
-          <cell r="E185" t="str">
-            <v>E07000199</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="C186" t="str">
-            <v>Lichfield</v>
-          </cell>
-          <cell r="E186" t="str">
-            <v>E07000194</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="C187" t="str">
-            <v>Cannock Chase</v>
-          </cell>
-          <cell r="E187" t="str">
-            <v>E07000192</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="C188" t="str">
-            <v>South Staffordshire</v>
-          </cell>
-          <cell r="E188" t="str">
-            <v>E07000196</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="C189" t="str">
-            <v>Stafford</v>
-          </cell>
-          <cell r="E189" t="str">
-            <v>E07000197</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="C190" t="str">
-            <v>Newcastle under Lyme</v>
-          </cell>
-          <cell r="E190" t="str">
-            <v>E07000195</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="C191" t="str">
-            <v>Staffordshire Moorlands</v>
-          </cell>
-          <cell r="E191" t="str">
-            <v>E07000198</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="C192" t="str">
-            <v>East Staffordshire</v>
-          </cell>
-          <cell r="E192" t="str">
-            <v>E07000193</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="C193" t="str">
-            <v>Ipswich</v>
-          </cell>
-          <cell r="E193" t="str">
-            <v>E07000202</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="C194" t="str">
-            <v>Suffolk Coastal</v>
-          </cell>
-          <cell r="E194" t="str">
-            <v>E07000205</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="C195" t="str">
-            <v>Waveney</v>
-          </cell>
-          <cell r="E195" t="str">
-            <v>E07000206</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="C196" t="str">
-            <v>Mid Suffolk</v>
-          </cell>
-          <cell r="E196" t="str">
-            <v>E07000203</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="C197" t="str">
-            <v>Babergh</v>
-          </cell>
-          <cell r="E197" t="str">
-            <v>E07000200</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="C198" t="str">
-            <v>St Edmundsbury</v>
-          </cell>
-          <cell r="E198" t="str">
-            <v>E07000204</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="C199" t="str">
-            <v>Forest Heath</v>
-          </cell>
-          <cell r="E199" t="str">
-            <v>E07000201</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="C200" t="str">
-            <v>Spelthorne</v>
-          </cell>
-          <cell r="E200" t="str">
-            <v>E07000213</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="C201" t="str">
-            <v>Runnymede</v>
-          </cell>
-          <cell r="E201" t="str">
-            <v>E07000212</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="C202" t="str">
-            <v>Surrey Heath</v>
-          </cell>
-          <cell r="E202" t="str">
-            <v>E07000214</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="C203" t="str">
-            <v>Woking</v>
-          </cell>
-          <cell r="E203" t="str">
-            <v>E07000217</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="C204" t="str">
-            <v>Elmbridge</v>
-          </cell>
-          <cell r="E204" t="str">
-            <v>E07000207</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="C205" t="str">
-            <v>Guildford</v>
-          </cell>
-          <cell r="E205" t="str">
-            <v>E07000209</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="C206" t="str">
-            <v>Waverley</v>
-          </cell>
-          <cell r="E206" t="str">
-            <v>E07000216</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="C207" t="str">
-            <v>Mole Valley</v>
-          </cell>
-          <cell r="E207" t="str">
-            <v>E07000210</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="C208" t="str">
-            <v>Epsom and Ewell</v>
-          </cell>
-          <cell r="E208" t="str">
-            <v>E07000208</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="C209" t="str">
-            <v>Reigate and Banstead</v>
-          </cell>
-          <cell r="E209" t="str">
-            <v>E07000211</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="C210" t="str">
-            <v>Tandridge</v>
-          </cell>
-          <cell r="E210" t="str">
-            <v>E07000215</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="C211" t="str">
-            <v>North Warwickshire</v>
-          </cell>
-          <cell r="E211" t="str">
-            <v>E07000218</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="C212" t="str">
-            <v>Nuneaton and Bedworth</v>
-          </cell>
-          <cell r="E212" t="str">
-            <v>E07000219</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="C213" t="str">
-            <v>Rugby</v>
-          </cell>
-          <cell r="E213" t="str">
-            <v>E07000220</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="C214" t="str">
-            <v>Stratford upon Avon</v>
-          </cell>
-          <cell r="E214" t="str">
-            <v>E07000221</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="C215" t="str">
-            <v>Warwick</v>
-          </cell>
-          <cell r="E215" t="str">
-            <v>E07000222</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="C216" t="str">
-            <v>West Sussex</v>
-          </cell>
-          <cell r="E216" t="str">
-            <v>E10000032</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="C217" t="str">
-            <v>Worthing</v>
-          </cell>
-          <cell r="E217" t="str">
-            <v>E07000229</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="C218" t="str">
-            <v>Arun</v>
-          </cell>
-          <cell r="E218" t="str">
-            <v>E07000224</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="C219" t="str">
-            <v>Chichester</v>
-          </cell>
-          <cell r="E219" t="str">
-            <v>E07000225</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="C220" t="str">
-            <v>Horsham</v>
-          </cell>
-          <cell r="E220" t="str">
-            <v>E07000227</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="C221" t="str">
-            <v>Crawley</v>
-          </cell>
-          <cell r="E221" t="str">
-            <v>E07000226</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="C222" t="str">
-            <v>Mid Sussex</v>
-          </cell>
-          <cell r="E222" t="str">
-            <v>E07000228</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="C223" t="str">
-            <v>Adur</v>
-          </cell>
-          <cell r="E223" t="str">
-            <v>E07000223</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="C224" t="str">
-            <v>Worcester</v>
-          </cell>
-          <cell r="E224" t="str">
-            <v>E07000237</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="C225" t="str">
-            <v>Malvern Hills</v>
-          </cell>
-          <cell r="E225" t="str">
-            <v>E07000235</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="C226" t="str">
-            <v>Wyre Forest</v>
-          </cell>
-          <cell r="E226" t="str">
-            <v>E07000239</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="C227" t="str">
-            <v>Bromsgrove</v>
-          </cell>
-          <cell r="E227" t="str">
-            <v>E07000234</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="C228" t="str">
-            <v>Redditch</v>
-          </cell>
-          <cell r="E228" t="str">
-            <v>E07000236</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="C229" t="str">
-            <v>Wychaven</v>
-          </cell>
-          <cell r="E229" t="str">
-            <v>E07000238</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="C230" t="str">
-            <v>Barking and Dagenham</v>
-          </cell>
-          <cell r="E230" t="str">
-            <v>E09000002</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="C231" t="str">
-            <v>Barnet</v>
-          </cell>
-          <cell r="E231" t="str">
-            <v>E09000003</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="C232" t="str">
-            <v>Bexley</v>
-          </cell>
-          <cell r="E232" t="str">
-            <v>E09000004</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="C233" t="str">
-            <v>Brent</v>
-          </cell>
-          <cell r="E233" t="str">
-            <v>E09000005</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="C234" t="str">
-            <v>Bromley</v>
-          </cell>
-          <cell r="E234" t="str">
-            <v>E09000006</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="C235" t="str">
-            <v>Camden</v>
-          </cell>
-          <cell r="E235" t="str">
-            <v>E09000007</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="C236" t="str">
-            <v>City of London</v>
-          </cell>
-          <cell r="E236" t="str">
-            <v>E09000001</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="C237" t="str">
-            <v>Croydon</v>
-          </cell>
-          <cell r="E237" t="str">
-            <v>E09000008</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="C238" t="str">
-            <v>Ealing</v>
-          </cell>
-          <cell r="E238" t="str">
-            <v>E09000009</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="C239" t="str">
-            <v>Enfield</v>
-          </cell>
-          <cell r="E239" t="str">
-            <v>E09000010</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="C240" t="str">
-            <v>Greenwich</v>
-          </cell>
-          <cell r="E240" t="str">
-            <v>E09000011</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="C241" t="str">
-            <v>Hackney</v>
-          </cell>
-          <cell r="E241" t="str">
-            <v>E09000012</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="C242" t="str">
-            <v>Hammersmith and Fulham</v>
-          </cell>
-          <cell r="E242" t="str">
-            <v>E09000013</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="C243" t="str">
-            <v>Haringey</v>
-          </cell>
-          <cell r="E243" t="str">
-            <v>E09000014</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="C244" t="str">
-            <v>Harrow</v>
-          </cell>
-          <cell r="E244" t="str">
-            <v>E09000015</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="C245" t="str">
-            <v>Havering</v>
-          </cell>
-          <cell r="E245" t="str">
-            <v>E09000016</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="C246" t="str">
-            <v>Hillingdon</v>
-          </cell>
-          <cell r="E246" t="str">
-            <v>E09000017</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="C247" t="str">
-            <v>Hounslow</v>
-          </cell>
-          <cell r="E247" t="str">
-            <v>E09000018</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="C248" t="str">
-            <v>Islington</v>
-          </cell>
-          <cell r="E248" t="str">
-            <v>E09000019</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="C249" t="str">
-            <v>Kensington and Chelsea</v>
-          </cell>
-          <cell r="E249" t="str">
-            <v>E09000020</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="C250" t="str">
-            <v>Kingston upon Thames</v>
-          </cell>
-          <cell r="E250" t="str">
-            <v>E09000021</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="C251" t="str">
-            <v>Lambeth</v>
-          </cell>
-          <cell r="E251" t="str">
-            <v>E09000022</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="C252" t="str">
-            <v>Lewisham</v>
-          </cell>
-          <cell r="E252" t="str">
-            <v>E09000023</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="C253" t="str">
-            <v>Merton</v>
-          </cell>
-          <cell r="E253" t="str">
-            <v>E09000024</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="C254" t="str">
-            <v>Newham</v>
-          </cell>
-          <cell r="E254" t="str">
-            <v>E09000025</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="C255" t="str">
-            <v>Redbridge</v>
-          </cell>
-          <cell r="E255" t="str">
-            <v>E09000026</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="C256" t="str">
-            <v>Richmond upon Thames</v>
-          </cell>
-          <cell r="E256" t="str">
-            <v>E09000027</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="C257" t="str">
-            <v>Southwark</v>
-          </cell>
-          <cell r="E257" t="str">
-            <v>E09000028</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="C258" t="str">
-            <v>Sutton</v>
-          </cell>
-          <cell r="E258" t="str">
-            <v>E09000029</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="C259" t="str">
-            <v xml:space="preserve">Tower Hamlets </v>
-          </cell>
-          <cell r="E259" t="str">
-            <v>E09000030</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="C260" t="str">
-            <v>Waltham Forest</v>
-          </cell>
-          <cell r="E260" t="str">
-            <v>E09000031</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="C261" t="str">
-            <v>Wandsworth</v>
-          </cell>
-          <cell r="E261" t="str">
-            <v>E09000032</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="C262" t="str">
-            <v>Westminster</v>
-          </cell>
-          <cell r="E262" t="str">
-            <v>E09000033</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="C263" t="str">
-            <v>Bath and North East Somerset</v>
-          </cell>
-          <cell r="E263" t="str">
-            <v>E06000022</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="C264" t="str">
-            <v>Bedford</v>
-          </cell>
-          <cell r="E264" t="str">
-            <v>E06000055</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="C265" t="str">
-            <v>Blackburn with Darwen</v>
-          </cell>
-          <cell r="E265" t="str">
-            <v>E06000008</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="C266" t="str">
-            <v>Blackpool</v>
-          </cell>
-          <cell r="E266" t="str">
-            <v>E06000009</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="C267" t="str">
-            <v>Bournemouth</v>
-          </cell>
-          <cell r="E267" t="str">
-            <v>E06000028</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="C268" t="str">
-            <v>Bracknell Forest</v>
-          </cell>
-          <cell r="E268" t="str">
-            <v>E06000036</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="C269" t="str">
-            <v>Brighton and Hove</v>
-          </cell>
-          <cell r="E269" t="str">
-            <v>E06000043</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="C270" t="str">
-            <v>Bristol</v>
-          </cell>
-          <cell r="E270" t="str">
-            <v>E06000023</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="C271" t="str">
-            <v>Central Bedfordshire</v>
-          </cell>
-          <cell r="E271" t="str">
-            <v>E06000056</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="C272" t="str">
-            <v>Cheshire East</v>
-          </cell>
-          <cell r="E272" t="str">
-            <v>E06000049</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="C273" t="str">
-            <v>Cheshire West and Chester</v>
-          </cell>
-          <cell r="E273" t="str">
-            <v>E06000050</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="C274" t="str">
-            <v>Cornwall</v>
-          </cell>
-          <cell r="E274" t="str">
-            <v>E06000052</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="C275" t="str">
-            <v>County Durham</v>
-          </cell>
-          <cell r="E275" t="str">
-            <v>E06000047</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="C276" t="str">
-            <v>Darlington</v>
-          </cell>
-          <cell r="E276" t="str">
-            <v>E06000005</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="C277" t="str">
-            <v>Derby</v>
-          </cell>
-          <cell r="E277" t="str">
-            <v>E06000015</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="C278" t="str">
-            <v>East Riding of Yorkshire</v>
-          </cell>
-          <cell r="E278" t="str">
-            <v>E06000011</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="C279" t="str">
-            <v>Halton</v>
-          </cell>
-          <cell r="E279" t="str">
-            <v>E06000006</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="C280" t="str">
-            <v>Hartlepool</v>
-          </cell>
-          <cell r="E280" t="str">
-            <v>E06000001</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="C281" t="str">
-            <v>Herefordshire</v>
-          </cell>
-          <cell r="E281" t="str">
-            <v>E06000019</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="C282" t="str">
-            <v>Isle of Wight</v>
-          </cell>
-          <cell r="E282" t="str">
-            <v>E06000046</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="C283" t="str">
-            <v>Hull</v>
-          </cell>
-          <cell r="E283" t="str">
-            <v>E06000010</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="C284" t="str">
-            <v>Leicester</v>
-          </cell>
-          <cell r="E284" t="str">
-            <v>E06000016</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="C285" t="str">
-            <v>Luton</v>
-          </cell>
-          <cell r="E285" t="str">
-            <v>E06000032</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="C286" t="str">
-            <v>Medway</v>
-          </cell>
-          <cell r="E286" t="str">
-            <v>E06000035</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="C287" t="str">
-            <v>Middlesbrough</v>
-          </cell>
-          <cell r="E287" t="str">
-            <v>E06000002</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="C288" t="str">
-            <v>Milton Keynes</v>
-          </cell>
-          <cell r="E288" t="str">
-            <v>E06000042</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="C289" t="str">
-            <v>North East Lincolnshire</v>
-          </cell>
-          <cell r="E289" t="str">
-            <v>E06000012</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="C290" t="str">
-            <v>North Lincolnshire</v>
-          </cell>
-          <cell r="E290" t="str">
-            <v>E06000013</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="C291" t="str">
-            <v>North Somerset</v>
-          </cell>
-          <cell r="E291" t="str">
-            <v>E06000024</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="C292" t="str">
-            <v>Northumberland</v>
-          </cell>
-          <cell r="E292" t="str">
-            <v>E06000057</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="C293" t="str">
-            <v>Nottingham</v>
-          </cell>
-          <cell r="E293" t="str">
-            <v>E06000018</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="C294" t="str">
-            <v>Peterborough</v>
-          </cell>
-          <cell r="E294" t="str">
-            <v>E06000031</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="C295" t="str">
-            <v>Plymouth</v>
-          </cell>
-          <cell r="E295" t="str">
-            <v>E06000026</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="C296" t="str">
-            <v>Poole</v>
-          </cell>
-          <cell r="E296" t="str">
-            <v>E06000029</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="C297" t="str">
-            <v>Portsmouth</v>
-          </cell>
-          <cell r="E297" t="str">
-            <v>E06000044</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="C298" t="str">
-            <v>Reading</v>
-          </cell>
-          <cell r="E298" t="str">
-            <v>E06000038</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="C299" t="str">
-            <v>Redcar and Cleveland</v>
-          </cell>
-          <cell r="E299" t="str">
-            <v>E06000003</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="C300" t="str">
-            <v>Rutland</v>
-          </cell>
-          <cell r="E300" t="str">
-            <v>E06000017</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="C301" t="str">
-            <v>Shropshire</v>
-          </cell>
-          <cell r="E301" t="str">
-            <v>E06000051</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="C302" t="str">
-            <v>Slough</v>
-          </cell>
-          <cell r="E302" t="str">
-            <v>E06000039</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="C303" t="str">
-            <v>Southampton</v>
-          </cell>
-          <cell r="E303" t="str">
-            <v>E06000045</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="C304" t="str">
-            <v>Southend on Sea</v>
-          </cell>
-          <cell r="E304" t="str">
-            <v>E06000033</v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="C305" t="str">
-            <v>South Gloucestershire</v>
-          </cell>
-          <cell r="E305" t="str">
-            <v>E06000025</v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="C306" t="str">
-            <v>Stockton on Tees</v>
-          </cell>
-          <cell r="E306" t="str">
-            <v>E06000004</v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="C307" t="str">
-            <v>Stoke on Trent</v>
-          </cell>
-          <cell r="E307" t="str">
-            <v>E06000021</v>
-          </cell>
-        </row>
-        <row r="308">
-          <cell r="C308" t="str">
-            <v>Swindon</v>
-          </cell>
-          <cell r="E308" t="str">
-            <v>E06000030</v>
-          </cell>
-        </row>
-        <row r="309">
-          <cell r="C309" t="str">
-            <v>Telford and Wrekin</v>
-          </cell>
-          <cell r="E309" t="str">
-            <v>E06000020</v>
-          </cell>
-        </row>
-        <row r="310">
-          <cell r="C310" t="str">
-            <v>Thurrock</v>
-          </cell>
-          <cell r="E310" t="str">
-            <v>E06000034</v>
-          </cell>
-        </row>
-        <row r="311">
-          <cell r="C311" t="str">
-            <v>Torbay</v>
-          </cell>
-          <cell r="E311" t="str">
-            <v>E06000027</v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="C312" t="str">
-            <v>Warrington</v>
-          </cell>
-          <cell r="E312" t="str">
-            <v>E06000007</v>
-          </cell>
-        </row>
-        <row r="313">
-          <cell r="C313" t="str">
-            <v>West Berkshire</v>
-          </cell>
-          <cell r="E313" t="str">
-            <v>E06000037</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="C314" t="str">
-            <v>Wiltshire</v>
-          </cell>
-          <cell r="E314" t="str">
-            <v>E06000054</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="C315" t="str">
-            <v>Windsor and Maidenhead</v>
-          </cell>
-          <cell r="E315" t="str">
-            <v>E06000040</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="C316" t="str">
-            <v>Wokingham</v>
-          </cell>
-          <cell r="E316" t="str">
-            <v>E06000041</v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="C317" t="str">
-            <v>York</v>
-          </cell>
-          <cell r="E317" t="str">
-            <v>E06000014</v>
-          </cell>
-        </row>
-        <row r="318">
-          <cell r="C318" t="str">
-            <v>Manchester</v>
-          </cell>
-          <cell r="E318" t="str">
-            <v>E08000003</v>
-          </cell>
-        </row>
-        <row r="319">
-          <cell r="C319" t="str">
-            <v>Bolton</v>
-          </cell>
-          <cell r="E319" t="str">
-            <v>E08000001</v>
-          </cell>
-        </row>
-        <row r="320">
-          <cell r="C320" t="str">
-            <v>Bury</v>
-          </cell>
-          <cell r="E320" t="str">
-            <v>E08000002</v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="C321" t="str">
-            <v>Oldham</v>
-          </cell>
-          <cell r="E321" t="str">
-            <v>E08000004</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="C322" t="str">
-            <v>Rochdale</v>
-          </cell>
-          <cell r="E322" t="str">
-            <v>E08000005</v>
-          </cell>
-        </row>
-        <row r="323">
-          <cell r="C323" t="str">
-            <v>Salford</v>
-          </cell>
-          <cell r="E323" t="str">
-            <v>E08000006</v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="C324" t="str">
-            <v>Stockport</v>
-          </cell>
-          <cell r="E324" t="str">
-            <v>E08000007</v>
-          </cell>
-        </row>
-        <row r="325">
-          <cell r="C325" t="str">
-            <v>Tameside</v>
-          </cell>
-          <cell r="E325" t="str">
-            <v>E08000008</v>
-          </cell>
-        </row>
-        <row r="326">
-          <cell r="C326" t="str">
-            <v>Trafford</v>
-          </cell>
-          <cell r="E326" t="str">
-            <v>E08000009</v>
-          </cell>
-        </row>
-        <row r="327">
-          <cell r="C327" t="str">
-            <v>Wigan</v>
-          </cell>
-          <cell r="E327" t="str">
-            <v>E08000010</v>
-          </cell>
-        </row>
-        <row r="328">
-          <cell r="C328" t="str">
-            <v>Liverpool</v>
-          </cell>
-          <cell r="E328" t="str">
-            <v>E08000012</v>
-          </cell>
-        </row>
-        <row r="329">
-          <cell r="C329" t="str">
-            <v>Knowsley</v>
-          </cell>
-          <cell r="E329" t="str">
-            <v>E08000011</v>
-          </cell>
-        </row>
-        <row r="330">
-          <cell r="C330" t="str">
-            <v>St Helens</v>
-          </cell>
-          <cell r="E330" t="str">
-            <v>E08000013</v>
-          </cell>
-        </row>
-        <row r="331">
-          <cell r="C331" t="str">
-            <v>Sefton</v>
-          </cell>
-          <cell r="E331" t="str">
-            <v>E08000014</v>
-          </cell>
-        </row>
-        <row r="332">
-          <cell r="C332" t="str">
-            <v>Wirral</v>
-          </cell>
-          <cell r="E332" t="str">
-            <v>E08000015</v>
-          </cell>
-        </row>
-        <row r="333">
-          <cell r="C333" t="str">
-            <v>Sheffield</v>
-          </cell>
-          <cell r="E333" t="str">
-            <v>E08000019</v>
-          </cell>
-        </row>
-        <row r="334">
-          <cell r="C334" t="str">
-            <v>Barnsley</v>
-          </cell>
-          <cell r="E334" t="str">
-            <v>E08000016</v>
-          </cell>
-        </row>
-        <row r="335">
-          <cell r="C335" t="str">
-            <v>Doncaster</v>
-          </cell>
-          <cell r="E335" t="str">
-            <v>E08000017</v>
-          </cell>
-        </row>
-        <row r="336">
-          <cell r="C336" t="str">
-            <v>Rotherham</v>
-          </cell>
-          <cell r="E336" t="str">
-            <v>E08000018</v>
-          </cell>
-        </row>
-        <row r="337">
-          <cell r="C337" t="str">
-            <v>Newcastle Upon Tyne</v>
-          </cell>
-          <cell r="E337" t="str">
-            <v>E08000021</v>
-          </cell>
-        </row>
-        <row r="338">
-          <cell r="C338" t="str">
-            <v>Gateshead</v>
-          </cell>
-          <cell r="E338" t="str">
-            <v>E08000037</v>
-          </cell>
-        </row>
-        <row r="339">
-          <cell r="C339" t="str">
-            <v>South Tyneside</v>
-          </cell>
-          <cell r="E339" t="str">
-            <v>E08000023</v>
-          </cell>
-        </row>
-        <row r="340">
-          <cell r="C340" t="str">
-            <v>North Tyneside</v>
-          </cell>
-          <cell r="E340" t="str">
-            <v>E08000022</v>
-          </cell>
-        </row>
-        <row r="341">
-          <cell r="C341" t="str">
-            <v>Sunderland</v>
-          </cell>
-          <cell r="E341" t="str">
-            <v>E08000024</v>
-          </cell>
-        </row>
-        <row r="342">
-          <cell r="C342" t="str">
-            <v>Birmingham</v>
-          </cell>
-          <cell r="E342" t="str">
-            <v>E08000025</v>
-          </cell>
-        </row>
-        <row r="343">
-          <cell r="C343" t="str">
-            <v>Coventry</v>
-          </cell>
-          <cell r="E343" t="str">
-            <v>E08000026</v>
-          </cell>
-        </row>
-        <row r="344">
-          <cell r="C344" t="str">
-            <v>Dudley</v>
-          </cell>
-          <cell r="E344" t="str">
-            <v>E08000027</v>
-          </cell>
-        </row>
-        <row r="345">
-          <cell r="C345" t="str">
-            <v>Sandwell</v>
-          </cell>
-          <cell r="E345" t="str">
-            <v>E08000028</v>
-          </cell>
-        </row>
-        <row r="346">
-          <cell r="C346" t="str">
-            <v>Solihull</v>
-          </cell>
-          <cell r="E346" t="str">
-            <v>E08000029</v>
-          </cell>
-        </row>
-        <row r="347">
-          <cell r="C347" t="str">
-            <v>Walsall</v>
-          </cell>
-          <cell r="E347" t="str">
-            <v>E08000030</v>
-          </cell>
-        </row>
-        <row r="348">
-          <cell r="C348" t="str">
-            <v>Wolverhampton</v>
-          </cell>
-          <cell r="E348" t="str">
-            <v>E08000031</v>
-          </cell>
-        </row>
-        <row r="349">
-          <cell r="C349" t="str">
-            <v>Leeds</v>
-          </cell>
-          <cell r="E349" t="str">
-            <v>E08000035</v>
-          </cell>
-        </row>
-        <row r="350">
-          <cell r="C350" t="str">
-            <v>Bradford</v>
-          </cell>
-          <cell r="E350" t="str">
-            <v>E08000032</v>
-          </cell>
-        </row>
-        <row r="351">
-          <cell r="C351" t="str">
-            <v>Calderdale</v>
-          </cell>
-          <cell r="E351" t="str">
-            <v>E08000033</v>
-          </cell>
-        </row>
-        <row r="352">
-          <cell r="C352" t="str">
-            <v>Kirklees</v>
-          </cell>
-          <cell r="E352" t="str">
-            <v>E08000034</v>
-          </cell>
-        </row>
-        <row r="353">
-          <cell r="C353" t="str">
-            <v>Wakefield</v>
-          </cell>
-          <cell r="E353" t="str">
-            <v>E08000036</v>
-          </cell>
-        </row>
-        <row r="354">
-          <cell r="C354" t="str">
-            <v>Isles of Scilly</v>
-          </cell>
-          <cell r="E354" t="str">
-            <v>E07000025</v>
-          </cell>
-        </row>
-        <row r="355">
-          <cell r="C355" t="e">
-            <v>#VALUE!</v>
-          </cell>
-          <cell r="E355" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="356">
-          <cell r="C356" t="e">
-            <v>#VALUE!</v>
-          </cell>
-          <cell r="E356" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4022,7 +1191,7 @@
       <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
@@ -4035,29 +1204,29 @@
     <col min="17" max="21" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4067,18 +1236,18 @@
       <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -4088,7 +1257,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" s="3" customFormat="1" ht="120.75" customHeight="1">
+    <row r="3" spans="1:21" s="3" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
@@ -4128,10 +1297,9 @@
       <c r="T3" s="16"/>
       <c r="U3" s="16"/>
     </row>
-    <row r="4" spans="1:21" ht="14" customHeight="1">
-      <c r="A4" s="33" t="str">
-        <f>VLOOKUP(B4,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000011</v>
+    <row r="4" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>67</v>
@@ -4142,7 +1310,7 @@
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="34">
         <v>289</v>
       </c>
       <c r="G4" s="2">
@@ -4173,10 +1341,9 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="14" customHeight="1">
-      <c r="A5" s="33" t="str">
-        <f>VLOOKUP(B5,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000011</v>
+    <row r="5" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>67</v>
@@ -4204,10 +1371,9 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="14" customHeight="1">
-      <c r="A6" s="33" t="str">
-        <f>VLOOKUP(B6,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000011</v>
+    <row r="6" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>67</v>
@@ -4218,7 +1384,7 @@
       <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="34">
         <v>240</v>
       </c>
       <c r="G6" s="2">
@@ -4249,10 +1415,9 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="14" customHeight="1">
-      <c r="A7" s="33" t="str">
-        <f>VLOOKUP(B7,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000011</v>
+    <row r="7" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>67</v>
@@ -4280,10 +1445,9 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="14" customHeight="1">
-      <c r="A8" s="33" t="str">
-        <f>VLOOKUP(B8,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000011</v>
+    <row r="8" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>67</v>
@@ -4294,7 +1458,7 @@
       <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="34">
         <v>190</v>
       </c>
       <c r="G8" s="2">
@@ -4325,10 +1489,9 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="14" customHeight="1">
-      <c r="A9" s="33" t="str">
-        <f>VLOOKUP(B9,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000011</v>
+    <row r="9" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>67</v>
@@ -4356,10 +1519,9 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="14" customHeight="1">
-      <c r="A10" s="33" t="str">
-        <f>VLOOKUP(B10,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000014</v>
+    <row r="10" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>68</v>
@@ -4395,10 +1557,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="33" t="str">
-        <f>VLOOKUP(B11,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000014</v>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>68</v>
@@ -4434,10 +1595,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="4" customFormat="1">
-      <c r="A12" s="33" t="str">
-        <f>VLOOKUP(B12,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000014</v>
+    <row r="12" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>68</v>
@@ -4448,7 +1608,7 @@
       <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="35">
         <v>182</v>
       </c>
       <c r="G12" s="4">
@@ -4473,10 +1633,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="4" customFormat="1">
-      <c r="A13" s="33" t="str">
-        <f>VLOOKUP(B13,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000014</v>
+    <row r="13" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>68</v>
@@ -4487,7 +1646,7 @@
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="35">
         <v>2</v>
       </c>
       <c r="G13" s="4">
@@ -4512,10 +1671,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="33" t="str">
-        <f>VLOOKUP(B14,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000014</v>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>68</v>
@@ -4551,10 +1709,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="33" t="str">
-        <f>VLOOKUP(B15,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000014</v>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>68</v>
@@ -4590,10 +1747,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="33" t="str">
-        <f>VLOOKUP(B16,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000016</v>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>80</v>
@@ -4629,10 +1785,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="33" t="str">
-        <f>VLOOKUP(B17,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000016</v>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>80</v>
@@ -4644,10 +1799,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="28">
-      <c r="A18" s="33" t="str">
-        <f>VLOOKUP(B18,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000016</v>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>80</v>
@@ -4686,10 +1840,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="33" t="str">
-        <f>VLOOKUP(B19,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000016</v>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>80</v>
@@ -4702,10 +1855,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="28">
-      <c r="A20" s="33" t="str">
-        <f>VLOOKUP(B20,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000016</v>
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>80</v>
@@ -4744,10 +1896,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="33" t="str">
-        <f>VLOOKUP(B21,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000016</v>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>80</v>
@@ -4759,10 +1910,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="33" t="str">
-        <f>VLOOKUP(B22,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000018</v>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>87</v>
@@ -4798,10 +1948,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="33" t="str">
-        <f>VLOOKUP(B23,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000018</v>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>87</v>
@@ -4837,10 +1986,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="33" t="str">
-        <f>VLOOKUP(B24,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000018</v>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>87</v>
@@ -4876,10 +2024,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="33" t="str">
-        <f>VLOOKUP(B25,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000018</v>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>87</v>
@@ -4890,7 +2037,7 @@
       <c r="E25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="36">
         <v>0</v>
       </c>
       <c r="G25" t="s">
@@ -4915,10 +2062,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="33" t="str">
-        <f>VLOOKUP(B26,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000018</v>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="B26" s="33" t="s">
         <v>87</v>
@@ -4954,10 +2100,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="33" t="str">
-        <f>VLOOKUP(B27,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000018</v>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>87</v>
@@ -4968,7 +2113,7 @@
       <c r="E27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="36">
         <v>0</v>
       </c>
       <c r="G27" t="s">
@@ -4993,10 +2138,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="33" t="str">
-        <f>VLOOKUP(B28,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000021</v>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>89</v>
@@ -5032,10 +2176,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="33" t="str">
-        <f>VLOOKUP(B29,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000021</v>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>89</v>
@@ -5071,10 +2214,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="33" t="str">
-        <f>VLOOKUP(B30,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000021</v>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>89</v>
@@ -5110,10 +2252,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="33" t="str">
-        <f>VLOOKUP(B31,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000021</v>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="B31" s="33" t="s">
         <v>89</v>
@@ -5149,10 +2290,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="33" t="str">
-        <f>VLOOKUP(B32,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000021</v>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="B32" s="33" t="s">
         <v>89</v>
@@ -5188,10 +2328,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="33" t="str">
-        <f>VLOOKUP(B33,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000021</v>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>89</v>
@@ -5227,10 +2366,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="33" t="str">
-        <f>VLOOKUP(B34,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000025</v>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="33" t="s">
+        <v>129</v>
       </c>
       <c r="B34" s="33" t="s">
         <v>91</v>
@@ -5266,10 +2404,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="33" t="str">
-        <f>VLOOKUP(B35,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000025</v>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="33" t="s">
+        <v>129</v>
       </c>
       <c r="B35" s="33" t="s">
         <v>91</v>
@@ -5305,10 +2442,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="33" t="str">
-        <f>VLOOKUP(B36,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000025</v>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="33" t="s">
+        <v>129</v>
       </c>
       <c r="B36" s="33" t="s">
         <v>91</v>
@@ -5344,10 +2480,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="33" t="str">
-        <f>VLOOKUP(B37,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000025</v>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="33" t="s">
+        <v>129</v>
       </c>
       <c r="B37" s="33" t="s">
         <v>91</v>
@@ -5383,10 +2518,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="33" t="str">
-        <f>VLOOKUP(B38,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000025</v>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="33" t="s">
+        <v>129</v>
       </c>
       <c r="B38" s="33" t="s">
         <v>91</v>
@@ -5425,10 +2559,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="33" t="str">
-        <f>VLOOKUP(B39,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000025</v>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="33" t="s">
+        <v>129</v>
       </c>
       <c r="B39" s="33" t="s">
         <v>91</v>
@@ -5464,10 +2597,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="33" t="str">
-        <f>VLOOKUP(B40,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000027</v>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="33" t="s">
+        <v>130</v>
       </c>
       <c r="B40" s="33" t="s">
         <v>94</v>
@@ -5503,10 +2635,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="33" t="str">
-        <f>VLOOKUP(B41,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000027</v>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="33" t="s">
+        <v>130</v>
       </c>
       <c r="B41" s="33" t="s">
         <v>94</v>
@@ -5542,10 +2673,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="33" t="str">
-        <f>VLOOKUP(B42,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000027</v>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="33" t="s">
+        <v>130</v>
       </c>
       <c r="B42" s="33" t="s">
         <v>94</v>
@@ -5581,10 +2711,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="33" t="str">
-        <f>VLOOKUP(B43,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000027</v>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="33" t="s">
+        <v>130</v>
       </c>
       <c r="B43" s="33" t="s">
         <v>94</v>
@@ -5620,10 +2749,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="33" t="str">
-        <f>VLOOKUP(B44,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000027</v>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="33" t="s">
+        <v>130</v>
       </c>
       <c r="B44" s="33" t="s">
         <v>94</v>
@@ -5659,10 +2787,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="33" t="str">
-        <f>VLOOKUP(B45,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000027</v>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="33" t="s">
+        <v>130</v>
       </c>
       <c r="B45" s="33" t="s">
         <v>94</v>
@@ -5698,10 +2825,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="33" t="str">
-        <f>VLOOKUP(B46,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000034</v>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="B46" s="33" t="s">
         <v>98</v>
@@ -5737,10 +2863,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="33" t="str">
-        <f>VLOOKUP(B47,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000034</v>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="B47" s="33" t="s">
         <v>98</v>
@@ -5776,10 +2901,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="33" t="str">
-        <f>VLOOKUP(B48,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000034</v>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="B48" s="33" t="s">
         <v>98</v>
@@ -5815,10 +2939,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="33" t="str">
-        <f>VLOOKUP(B49,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000034</v>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="B49" s="33" t="s">
         <v>98</v>
@@ -5854,10 +2977,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="33" t="str">
-        <f>VLOOKUP(B50,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000034</v>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="B50" s="33" t="s">
         <v>98</v>
@@ -5893,10 +3015,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="33" t="str">
-        <f>VLOOKUP(B51,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000034</v>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="B51" s="33" t="s">
         <v>98</v>
@@ -5932,10 +3053,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="33" t="str">
-        <f>VLOOKUP(B52,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000006</v>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="33" t="s">
+        <v>132</v>
       </c>
       <c r="B52" s="33" t="s">
         <v>101</v>
@@ -5971,10 +3091,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="33" t="str">
-        <f>VLOOKUP(B53,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000006</v>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="33" t="s">
+        <v>132</v>
       </c>
       <c r="B53" s="33" t="s">
         <v>101</v>
@@ -6010,10 +3129,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="33" t="str">
-        <f>VLOOKUP(B54,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000006</v>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="33" t="s">
+        <v>132</v>
       </c>
       <c r="B54" s="33" t="s">
         <v>101</v>
@@ -6046,10 +3164,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="33" t="str">
-        <f>VLOOKUP(B55,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000006</v>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="33" t="s">
+        <v>132</v>
       </c>
       <c r="B55" s="33" t="s">
         <v>101</v>
@@ -6082,10 +3199,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="33" t="str">
-        <f>VLOOKUP(B56,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000006</v>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="33" t="s">
+        <v>132</v>
       </c>
       <c r="B56" s="33" t="s">
         <v>101</v>
@@ -6118,10 +3234,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="33" t="str">
-        <f>VLOOKUP(B57,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000006</v>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="33" t="s">
+        <v>132</v>
       </c>
       <c r="B57" s="33" t="s">
         <v>101</v>
@@ -6154,10 +3269,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="33" t="str">
-        <f>VLOOKUP(B58,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000006</v>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="33" t="s">
+        <v>132</v>
       </c>
       <c r="B58" s="33" t="s">
         <v>101</v>
@@ -6175,10 +3289,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="33" t="str">
-        <f>VLOOKUP(B59,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000032</v>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="33" t="s">
+        <v>133</v>
       </c>
       <c r="B59" s="33" t="s">
         <v>97</v>
@@ -6217,10 +3330,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="33" t="str">
-        <f>VLOOKUP(B60,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000032</v>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="33" t="s">
+        <v>133</v>
       </c>
       <c r="B60" s="33" t="s">
         <v>97</v>
@@ -6256,10 +3368,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="33" t="str">
-        <f>VLOOKUP(B61,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000032</v>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="33" t="s">
+        <v>133</v>
       </c>
       <c r="B61" s="33" t="s">
         <v>97</v>
@@ -6298,10 +3409,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="33" t="str">
-        <f>VLOOKUP(B62,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000032</v>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="33" t="s">
+        <v>133</v>
       </c>
       <c r="B62" s="33" t="s">
         <v>97</v>
@@ -6337,10 +3447,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="33" t="str">
-        <f>VLOOKUP(B63,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000032</v>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="33" t="s">
+        <v>133</v>
       </c>
       <c r="B63" s="33" t="s">
         <v>97</v>
@@ -6379,10 +3488,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="33" t="str">
-        <f>VLOOKUP(B64,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000032</v>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="33" t="s">
+        <v>133</v>
       </c>
       <c r="B64" s="33" t="s">
         <v>97</v>
@@ -6418,10 +3526,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="33" t="str">
-        <f>VLOOKUP(B65,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000013</v>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="33" t="s">
+        <v>134</v>
       </c>
       <c r="B65" s="33" t="s">
         <v>123</v>
@@ -6457,10 +3564,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="33" t="str">
-        <f>VLOOKUP(B66,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000013</v>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="33" t="s">
+        <v>134</v>
       </c>
       <c r="B66" s="33" t="s">
         <v>123</v>
@@ -6493,10 +3599,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="33" t="str">
-        <f>VLOOKUP(B67,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000013</v>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="33" t="s">
+        <v>134</v>
       </c>
       <c r="B67" s="33" t="s">
         <v>123</v>
@@ -6532,10 +3637,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="33" t="str">
-        <f>VLOOKUP(B68,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000013</v>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="33" t="s">
+        <v>134</v>
       </c>
       <c r="B68" s="33" t="s">
         <v>123</v>
@@ -6571,10 +3675,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="33" t="str">
-        <f>VLOOKUP(B69,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000013</v>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="33" t="s">
+        <v>134</v>
       </c>
       <c r="B69" s="33" t="s">
         <v>123</v>
@@ -6610,10 +3713,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="33" t="str">
-        <f>VLOOKUP(B70,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000013</v>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="33" t="s">
+        <v>134</v>
       </c>
       <c r="B70" s="33" t="s">
         <v>123</v>
@@ -6649,10 +3751,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="33" t="str">
-        <f>VLOOKUP(B71,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000015</v>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="33" t="s">
+        <v>135</v>
       </c>
       <c r="B71" s="33" t="s">
         <v>115</v>
@@ -6688,10 +3789,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="33" t="str">
-        <f>VLOOKUP(B72,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000015</v>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="33" t="s">
+        <v>135</v>
       </c>
       <c r="B72" s="33" t="s">
         <v>115</v>
@@ -6727,10 +3827,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="33" t="str">
-        <f>VLOOKUP(B73,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000015</v>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="33" t="s">
+        <v>135</v>
       </c>
       <c r="B73" s="33" t="s">
         <v>115</v>
@@ -6766,10 +3865,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="33" t="str">
-        <f>VLOOKUP(B74,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000015</v>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="33" t="s">
+        <v>135</v>
       </c>
       <c r="B74" s="33" t="s">
         <v>115</v>
@@ -6805,10 +3903,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="33" t="str">
-        <f>VLOOKUP(B75,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000015</v>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="33" t="s">
+        <v>135</v>
       </c>
       <c r="B75" s="33" t="s">
         <v>115</v>
@@ -6844,10 +3941,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="33" t="str">
-        <f>VLOOKUP(B76,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000015</v>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="33" t="s">
+        <v>135</v>
       </c>
       <c r="B76" s="33" t="s">
         <v>115</v>
@@ -6883,10 +3979,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="33" t="str">
-        <f>VLOOKUP(B77,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000023</v>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="B77" s="33" t="s">
         <v>117</v>
@@ -6922,10 +4017,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="33" t="str">
-        <f>VLOOKUP(B78,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000023</v>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="B78" s="33" t="s">
         <v>117</v>
@@ -6961,10 +4055,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="33" t="str">
-        <f>VLOOKUP(B79,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000023</v>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="B79" s="33" t="s">
         <v>117</v>
@@ -7000,10 +4093,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="33" t="str">
-        <f>VLOOKUP(B80,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000023</v>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="B80" s="33" t="s">
         <v>117</v>
@@ -7039,10 +4131,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="33" t="str">
-        <f>VLOOKUP(B81,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000023</v>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="B81" s="33" t="s">
         <v>117</v>
@@ -7078,10 +4169,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="33" t="str">
-        <f>VLOOKUP(B82,[1]ALL_TYPES!$C:$E,3,FALSE)</f>
-        <v>E10000023</v>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="B82" s="33" t="s">
         <v>117</v>
@@ -7125,11 +4215,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7141,7 +4226,7 @@
       <selection activeCell="A66" sqref="A66:A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="80.1640625" customWidth="1"/>
@@ -7156,26 +4241,26 @@
     <col min="18" max="21" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30.75" customHeight="1">
-      <c r="C1" s="39" t="s">
+    <row r="1" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:21" ht="14" customHeight="1">
+    <row r="2" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="35"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="19"/>
       <c r="Q2"/>
       <c r="R2"/>
@@ -7183,14 +4268,14 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:21" ht="14" customHeight="1">
-      <c r="C3" s="36" t="s">
+    <row r="3" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>15</v>
       </c>
       <c r="Q3"/>
@@ -7199,17 +4284,17 @@
       <c r="T3"/>
       <c r="U3"/>
     </row>
-    <row r="4" spans="1:21" ht="27" customHeight="1">
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
+    <row r="4" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
     </row>
-    <row r="5" spans="1:21" ht="14" customHeight="1">
+    <row r="5" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -7228,7 +4313,7 @@
       <c r="T5"/>
       <c r="U5"/>
     </row>
-    <row r="6" spans="1:21" ht="14" customHeight="1">
+    <row r="6" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -7247,7 +4332,7 @@
       <c r="T6"/>
       <c r="U6"/>
     </row>
-    <row r="7" spans="1:21" ht="14" customHeight="1">
+    <row r="7" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -7266,7 +4351,7 @@
       <c r="T7"/>
       <c r="U7"/>
     </row>
-    <row r="8" spans="1:21" ht="14" customHeight="1">
+    <row r="8" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -7285,7 +4370,7 @@
       <c r="T8"/>
       <c r="U8"/>
     </row>
-    <row r="9" spans="1:21" ht="14" customHeight="1">
+    <row r="9" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -7304,7 +4389,7 @@
       <c r="T9"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="1:21" ht="14" customHeight="1">
+    <row r="10" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -7323,7 +4408,7 @@
       <c r="T10"/>
       <c r="U10"/>
     </row>
-    <row r="11" spans="1:21" ht="14" customHeight="1">
+    <row r="11" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>68</v>
       </c>
@@ -7342,7 +4427,7 @@
       <c r="T11"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="1:21" ht="14" customHeight="1">
+    <row r="12" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>68</v>
       </c>
@@ -7361,7 +4446,7 @@
       <c r="T12"/>
       <c r="U12"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>68</v>
       </c>
@@ -7375,7 +4460,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>68</v>
       </c>
@@ -7390,7 +4475,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>68</v>
       </c>
@@ -7406,7 +4491,7 @@
       <c r="G15" s="1"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>68</v>
       </c>
@@ -7420,7 +4505,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -7434,7 +4519,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -7448,7 +4533,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -7462,7 +4547,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -7476,7 +4561,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -7490,7 +4575,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -7504,7 +4589,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -7518,7 +4603,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -7532,7 +4617,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -7546,7 +4631,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -7560,7 +4645,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -7574,7 +4659,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -7588,7 +4673,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -7602,7 +4687,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -7616,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -7630,7 +4715,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -7644,7 +4729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -7658,7 +4743,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -7672,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -7686,7 +4771,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -7700,7 +4785,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -7714,7 +4799,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -7728,7 +4813,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -7742,7 +4827,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -7756,7 +4841,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -7770,7 +4855,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -7784,7 +4869,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -7798,7 +4883,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -7812,7 +4897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -7826,7 +4911,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -7840,7 +4925,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -7854,7 +4939,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>98</v>
       </c>
@@ -7868,7 +4953,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -7882,7 +4967,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -7896,7 +4981,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -7910,7 +4995,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -7924,7 +5009,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -7938,7 +5023,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -7952,7 +5037,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -7966,7 +5051,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>101</v>
       </c>
@@ -7980,7 +5065,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -7994,7 +5079,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -8008,7 +5093,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>101</v>
       </c>
@@ -8022,7 +5107,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>97</v>
       </c>
@@ -8039,7 +5124,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -8053,7 +5138,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -8070,7 +5155,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>97</v>
       </c>
@@ -8084,7 +5169,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -8101,7 +5186,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -8115,7 +5200,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -8129,7 +5214,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>123</v>
       </c>
@@ -8143,7 +5228,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>123</v>
       </c>
@@ -8157,7 +5242,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>123</v>
       </c>
@@ -8171,7 +5256,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>123</v>
       </c>
@@ -8185,7 +5270,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>123</v>
       </c>
@@ -8199,7 +5284,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>115</v>
       </c>
@@ -8213,7 +5298,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -8227,7 +5312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>115</v>
       </c>
@@ -8241,7 +5326,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>115</v>
       </c>
@@ -8255,7 +5340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -8269,7 +5354,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>115</v>
       </c>
@@ -8283,7 +5368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>117</v>
       </c>
@@ -8297,7 +5382,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>117</v>
       </c>
@@ -8311,7 +5396,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>117</v>
       </c>
@@ -8325,7 +5410,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -8339,7 +5424,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>117</v>
       </c>
@@ -8353,7 +5438,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>117</v>
       </c>
@@ -8378,11 +5463,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8394,7 +5474,7 @@
       <selection activeCell="A63" sqref="A63:A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" style="2" customWidth="1"/>
@@ -8402,95 +5482,95 @@
     <col min="4" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-    </row>
-    <row r="2" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-    </row>
-    <row r="3" spans="1:12" ht="91" customHeight="1">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+    </row>
+    <row r="2" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+    </row>
+    <row r="3" spans="1:12" ht="91" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="40" t="s">
         <v>23</v>
       </c>
       <c r="L3" s="25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="40"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -8517,7 +5597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -8536,7 +5616,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="23.25" customHeight="1">
+    <row r="8" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -8561,7 +5641,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -8580,7 +5660,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -8605,7 +5685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" customHeight="1">
+    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -8624,7 +5704,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -8659,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.5" customHeight="1">
+    <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -8694,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -8729,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -8767,7 +5847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -8778,7 +5858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -8816,7 +5896,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -8827,7 +5907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -8865,7 +5945,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -8876,7 +5956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -8914,7 +5994,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -8952,7 +6032,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -8990,7 +6070,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -9028,7 +6108,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -9066,7 +6146,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -9104,7 +6184,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>88</v>
       </c>
@@ -9139,7 +6219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>88</v>
       </c>
@@ -9174,7 +6254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>88</v>
       </c>
@@ -9209,7 +6289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>88</v>
       </c>
@@ -9244,7 +6324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>88</v>
       </c>
@@ -9279,7 +6359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>88</v>
       </c>
@@ -9314,7 +6394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>91</v>
       </c>
@@ -9352,7 +6432,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>91</v>
       </c>
@@ -9390,7 +6470,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>91</v>
       </c>
@@ -9428,7 +6508,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>91</v>
       </c>
@@ -9466,7 +6546,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>91</v>
       </c>
@@ -9504,7 +6584,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>91</v>
       </c>
@@ -9542,7 +6622,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>94</v>
       </c>
@@ -9577,7 +6657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>94</v>
       </c>
@@ -9612,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>94</v>
       </c>
@@ -9647,7 +6727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>94</v>
       </c>
@@ -9682,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>94</v>
       </c>
@@ -9717,7 +6797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>94</v>
       </c>
@@ -9752,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>98</v>
       </c>
@@ -9790,7 +6870,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>98</v>
       </c>
@@ -9828,7 +6908,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>98</v>
       </c>
@@ -9866,7 +6946,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>98</v>
       </c>
@@ -9904,7 +6984,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>98</v>
       </c>
@@ -9942,7 +7022,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>98</v>
       </c>
@@ -9980,7 +7060,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>101</v>
       </c>
@@ -10015,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>101</v>
       </c>
@@ -10050,7 +7130,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>101</v>
       </c>
@@ -10085,7 +7165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>101</v>
       </c>
@@ -10120,7 +7200,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>101</v>
       </c>
@@ -10155,7 +7235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>101</v>
       </c>
@@ -10190,7 +7270,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>97</v>
       </c>
@@ -10225,7 +7305,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>97</v>
       </c>
@@ -10260,7 +7340,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>97</v>
       </c>
@@ -10295,7 +7375,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>97</v>
       </c>
@@ -10330,7 +7410,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>97</v>
       </c>
@@ -10365,7 +7445,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>97</v>
       </c>
@@ -10400,7 +7480,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>123</v>
       </c>
@@ -10438,7 +7518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -10476,7 +7556,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>123</v>
       </c>
@@ -10514,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -10552,7 +7632,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>123</v>
       </c>
@@ -10590,7 +7670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>123</v>
       </c>
@@ -10625,7 +7705,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>115</v>
       </c>
@@ -10663,7 +7743,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>115</v>
       </c>
@@ -10701,7 +7781,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>115</v>
       </c>
@@ -10739,7 +7819,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>115</v>
       </c>
@@ -10777,7 +7857,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -10815,7 +7895,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>115</v>
       </c>
@@ -10853,7 +7933,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>117</v>
       </c>
@@ -10891,7 +7971,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>117</v>
       </c>
@@ -10929,7 +8009,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>117</v>
       </c>
@@ -10967,7 +8047,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>117</v>
       </c>
@@ -11005,7 +8085,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>117</v>
       </c>
@@ -11043,7 +8123,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>117</v>
       </c>
@@ -11100,11 +8180,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11119,7 +8194,7 @@
       <selection pane="bottomRight" activeCell="A67" sqref="A67:A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
@@ -11133,105 +8208,105 @@
     <col min="25" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" customHeight="1">
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-    </row>
-    <row r="2" spans="1:30" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+    </row>
+    <row r="2" spans="1:30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:30" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="36" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="45" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="36" t="s">
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="39" t="s">
         <v>29</v>
       </c>
       <c r="R3" s="27"/>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="39" t="s">
         <v>30</v>
       </c>
       <c r="T3" s="27"/>
-      <c r="U3" s="36" t="s">
+      <c r="U3" s="39" t="s">
         <v>31</v>
       </c>
       <c r="V3" s="27"/>
-      <c r="W3" s="36" t="s">
+      <c r="W3" s="39" t="s">
         <v>32</v>
       </c>
       <c r="X3" s="2"/>
@@ -11242,30 +8317,30 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A4" s="41"/>
+    <row r="4" spans="1:30" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="47"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="36"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="39"/>
       <c r="R4" s="27"/>
-      <c r="S4" s="36"/>
+      <c r="S4" s="39"/>
       <c r="T4" s="27"/>
-      <c r="U4" s="36"/>
+      <c r="U4" s="39"/>
       <c r="V4" s="27"/>
-      <c r="W4" s="36"/>
+      <c r="W4" s="39"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
@@ -11274,18 +8349,18 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="102" customHeight="1">
-      <c r="A5" s="41"/>
+    <row r="5" spans="1:30" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="47"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="42" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="44" t="s">
         <v>34</v>
       </c>
       <c r="H5" s="13" t="s">
@@ -11297,37 +8372,37 @@
       <c r="J5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="44" t="s">
         <v>85</v>
       </c>
       <c r="L5" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="N5" s="44" t="s">
         <v>35</v>
       </c>
       <c r="O5" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="36"/>
+      <c r="Q5" s="39"/>
       <c r="R5" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="S5" s="36"/>
+      <c r="S5" s="39"/>
       <c r="T5" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="U5" s="36"/>
+      <c r="U5" s="39"/>
       <c r="V5" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="W5" s="36"/>
+      <c r="W5" s="39"/>
       <c r="X5" s="21" t="s">
         <v>107</v>
       </c>
@@ -11341,32 +8416,32 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
-      <c r="A6" s="41"/>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" s="47"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="43"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="29"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
       <c r="O6" s="29"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="36"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="39"/>
       <c r="R6" s="27"/>
-      <c r="S6" s="36"/>
+      <c r="S6" s="39"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="36"/>
+      <c r="U6" s="39"/>
       <c r="V6" s="27"/>
-      <c r="W6" s="36"/>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="W6" s="39"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -11404,7 +8479,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:30" customFormat="1">
+    <row r="8" spans="1:30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
@@ -11442,7 +8517,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" customFormat="1">
+    <row r="9" spans="1:30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>67</v>
       </c>
@@ -11492,7 +8567,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" customFormat="1">
+    <row r="10" spans="1:30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
@@ -11530,7 +8605,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>67</v>
       </c>
@@ -11579,7 +8654,7 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
     </row>
-    <row r="12" spans="1:30" customFormat="1">
+    <row r="12" spans="1:30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>67</v>
       </c>
@@ -11616,7 +8691,7 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
     </row>
-    <row r="13" spans="1:30" customFormat="1">
+    <row r="13" spans="1:30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>68</v>
       </c>
@@ -11672,7 +8747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:30" customFormat="1">
+    <row r="14" spans="1:30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>68</v>
       </c>
@@ -11683,7 +8758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:30" customFormat="1">
+    <row r="15" spans="1:30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>68</v>
       </c>
@@ -11703,7 +8778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:30" customFormat="1">
+    <row r="16" spans="1:30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>68</v>
       </c>
@@ -11714,7 +8789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:26" customFormat="1">
+    <row r="17" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>68</v>
       </c>
@@ -11734,7 +8809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:26" customFormat="1" ht="14" customHeight="1">
+    <row r="18" spans="1:26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>68</v>
       </c>
@@ -11745,7 +8820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:26" customFormat="1">
+    <row r="19" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -11780,7 +8855,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:26" customFormat="1">
+    <row r="20" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -11794,7 +8869,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:26" customFormat="1">
+    <row r="21" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -11829,7 +8904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:26" customFormat="1">
+    <row r="22" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -11843,7 +8918,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:26" customFormat="1">
+    <row r="23" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -11881,7 +8956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:26" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -11895,7 +8970,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:26" customFormat="1">
+    <row r="25" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -11960,7 +9035,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:26" customFormat="1">
+    <row r="26" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -12025,7 +9100,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:26" customFormat="1">
+    <row r="27" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -12090,7 +9165,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:26" customFormat="1">
+    <row r="28" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -12155,7 +9230,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:26" customFormat="1">
+    <row r="29" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -12220,7 +9295,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:26" customFormat="1">
+    <row r="30" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -12285,7 +9360,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:26" customFormat="1">
+    <row r="31" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>88</v>
       </c>
@@ -12320,7 +9395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" customFormat="1">
+    <row r="32" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>88</v>
       </c>
@@ -12376,7 +9451,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:27" customFormat="1">
+    <row r="33" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>88</v>
       </c>
@@ -12411,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" customFormat="1">
+    <row r="34" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>88</v>
       </c>
@@ -12467,7 +9542,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:27" customFormat="1" ht="15" customHeight="1">
+    <row r="35" spans="1:27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>88</v>
       </c>
@@ -12502,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27" customFormat="1">
+    <row r="36" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>88</v>
       </c>
@@ -12558,7 +9633,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:27" customFormat="1">
+    <row r="37" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>91</v>
       </c>
@@ -12627,7 +9702,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:27" customFormat="1">
+    <row r="38" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>91</v>
       </c>
@@ -12696,7 +9771,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:27" customFormat="1">
+    <row r="39" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>91</v>
       </c>
@@ -12765,7 +9840,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:27" customFormat="1">
+    <row r="40" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>91</v>
       </c>
@@ -12834,7 +9909,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:27" customFormat="1">
+    <row r="41" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>91</v>
       </c>
@@ -12903,7 +9978,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:27" customFormat="1">
+    <row r="42" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>91</v>
       </c>
@@ -12972,7 +10047,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:27" customFormat="1">
+    <row r="43" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>94</v>
       </c>
@@ -13037,7 +10112,7 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="1:27" customFormat="1">
+    <row r="44" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>94</v>
       </c>
@@ -13102,7 +10177,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>94</v>
       </c>
@@ -13163,7 +10238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>94</v>
       </c>
@@ -13224,7 +10299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>94</v>
       </c>
@@ -13285,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>94</v>
       </c>
@@ -13346,7 +10421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="30" t="s">
         <v>98</v>
       </c>
@@ -13407,7 +10482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="30" t="s">
         <v>98</v>
       </c>
@@ -13463,7 +10538,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="30" t="s">
         <v>98</v>
       </c>
@@ -13524,7 +10599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="30" t="s">
         <v>98</v>
       </c>
@@ -13580,7 +10655,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="30" t="s">
         <v>98</v>
       </c>
@@ -13641,7 +10716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="30" t="s">
         <v>98</v>
       </c>
@@ -13697,7 +10772,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="31" t="s">
         <v>101</v>
       </c>
@@ -13778,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="31" t="s">
         <v>101</v>
       </c>
@@ -13798,7 +10873,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="31" t="s">
         <v>101</v>
       </c>
@@ -13878,7 +10953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="31" t="s">
         <v>101</v>
       </c>
@@ -13898,7 +10973,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="31" t="s">
         <v>101</v>
       </c>
@@ -13978,7 +11053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="31" t="s">
         <v>101</v>
       </c>
@@ -13989,7 +11064,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>97</v>
       </c>
@@ -14039,7 +11114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>97</v>
       </c>
@@ -14122,7 +11197,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>97</v>
       </c>
@@ -14172,7 +11247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>97</v>
       </c>
@@ -14255,7 +11330,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>97</v>
       </c>
@@ -14305,7 +11380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>97</v>
       </c>
@@ -14388,7 +11463,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>123</v>
       </c>
@@ -14462,7 +11537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>123</v>
       </c>
@@ -14545,7 +11620,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>123</v>
       </c>
@@ -14619,7 +11694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>123</v>
       </c>
@@ -14702,7 +11777,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>123</v>
       </c>
@@ -14776,7 +11851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>123</v>
       </c>
@@ -14859,7 +11934,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -14942,7 +12017,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>115</v>
       </c>
@@ -15025,7 +12100,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>115</v>
       </c>
@@ -15108,7 +12183,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -15191,7 +12266,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>115</v>
       </c>
@@ -15274,7 +12349,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>115</v>
       </c>
@@ -15357,7 +12432,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>117</v>
       </c>
@@ -15440,7 +12515,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>117</v>
       </c>
@@ -15523,7 +12598,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -15606,7 +12681,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>117</v>
       </c>
@@ -15689,7 +12764,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>117</v>
       </c>
@@ -15772,7 +12847,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>117</v>
       </c>
@@ -15857,6 +12932,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="C3:C6"/>
     <mergeCell ref="B1:W2"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="K5:K6"/>
@@ -15870,19 +12950,9 @@
     <mergeCell ref="S3:S6"/>
     <mergeCell ref="U3:U6"/>
     <mergeCell ref="W3:W6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -15897,7 +12967,7 @@
       <selection pane="bottomRight" activeCell="Q2" sqref="Q2:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="31.5" customWidth="1"/>
@@ -15906,130 +12976,130 @@
     <col min="6" max="24" width="16.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="11" customFormat="1">
-      <c r="C1" s="40" t="s">
+    <row r="1" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
       <c r="X1" s="12"/>
     </row>
-    <row r="2" spans="1:24" ht="133.5" customHeight="1">
+    <row r="2" spans="1:24" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="36" t="s">
+      <c r="S2" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="36" t="s">
+      <c r="U2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="36" t="s">
+      <c r="W2" s="39" t="s">
         <v>45</v>
       </c>
       <c r="X2" s="8"/>
     </row>
-    <row r="3" spans="1:24">
-      <c r="C3" s="46"/>
-      <c r="D3" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="36"/>
-    </row>
-    <row r="4" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C3" s="49"/>
+      <c r="D3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="39"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -16081,7 +13151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -16111,7 +13181,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -16163,7 +13233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -16193,7 +13263,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -16247,7 +13317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -16279,7 +13349,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -16347,7 +13417,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -16377,7 +13447,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -16448,7 +13518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -16479,7 +13549,7 @@
       <c r="W13" s="2"/>
       <c r="X13"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -16548,7 +13618,7 @@
       </c>
       <c r="X14"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -16578,7 +13648,7 @@
       <c r="V15" s="24"/>
       <c r="W15" s="24"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -16646,7 +13716,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -16659,7 +13729,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -16727,7 +13797,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -16738,7 +13808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -16806,7 +13876,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -16817,7 +13887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -16885,7 +13955,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -16953,7 +14023,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -17021,7 +14091,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -17089,7 +14159,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -17157,7 +14227,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -17225,7 +14295,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>88</v>
       </c>
@@ -17293,7 +14363,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>88</v>
       </c>
@@ -17361,7 +14431,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>88</v>
       </c>
@@ -17429,7 +14499,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>88</v>
       </c>
@@ -17497,7 +14567,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>88</v>
       </c>
@@ -17565,7 +14635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>88</v>
       </c>
@@ -17633,7 +14703,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>91</v>
       </c>
@@ -17701,7 +14771,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>91</v>
       </c>
@@ -17769,7 +14839,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>91</v>
       </c>
@@ -17837,7 +14907,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>91</v>
       </c>
@@ -17905,7 +14975,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>91</v>
       </c>
@@ -17973,7 +15043,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>91</v>
       </c>
@@ -18041,7 +15111,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>94</v>
       </c>
@@ -18127,7 +15197,7 @@
         <v>S12</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>94</v>
       </c>
@@ -18213,7 +15283,7 @@
         <v>S12</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>94</v>
       </c>
@@ -18281,7 +15351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>94</v>
       </c>
@@ -18349,7 +15419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>94</v>
       </c>
@@ -18417,7 +15487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>94</v>
       </c>
@@ -18485,7 +15555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>99</v>
       </c>
@@ -18553,7 +15623,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>99</v>
       </c>
@@ -18621,7 +15691,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>99</v>
       </c>
@@ -18689,7 +15759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>99</v>
       </c>
@@ -18757,7 +15827,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>99</v>
       </c>
@@ -18825,7 +15895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>99</v>
       </c>
@@ -18893,7 +15963,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>101</v>
       </c>
@@ -18961,7 +16031,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>101</v>
       </c>
@@ -18972,7 +16042,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>101</v>
       </c>
@@ -19040,7 +16110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>101</v>
       </c>
@@ -19051,7 +16121,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>101</v>
       </c>
@@ -19119,7 +16189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>101</v>
       </c>
@@ -19130,7 +16200,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -19201,7 +16271,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>97</v>
       </c>
@@ -19269,7 +16339,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>97</v>
       </c>
@@ -19340,7 +16410,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -19408,7 +16478,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -19479,7 +16549,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>97</v>
       </c>
@@ -19547,7 +16617,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -19615,7 +16685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>123</v>
       </c>
@@ -19683,7 +16753,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -19751,7 +16821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>123</v>
       </c>
@@ -19819,7 +16889,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>123</v>
       </c>
@@ -19887,7 +16957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>123</v>
       </c>
@@ -19955,7 +17025,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>115</v>
       </c>
@@ -20023,7 +17093,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>115</v>
       </c>
@@ -20091,7 +17161,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>115</v>
       </c>
@@ -20159,7 +17229,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -20227,7 +17297,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>115</v>
       </c>
@@ -20295,7 +17365,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>115</v>
       </c>
@@ -20363,7 +17433,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>117</v>
       </c>
@@ -20431,7 +17501,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>117</v>
       </c>
@@ -20499,7 +17569,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>117</v>
       </c>
@@ -20567,7 +17637,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>117</v>
       </c>
@@ -20635,7 +17705,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>117</v>
       </c>
@@ -20703,7 +17773,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -20773,6 +17843,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="C1:W1"/>
     <mergeCell ref="D2:D3"/>
@@ -20789,20 +17865,9 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="R2:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -20814,27 +17879,27 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -20842,7 +17907,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -20850,7 +17915,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -20858,7 +17923,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -20866,7 +17931,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -20874,7 +17939,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -20882,7 +17947,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -20890,7 +17955,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -20898,7 +17963,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -20906,7 +17971,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -20914,7 +17979,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -20922,7 +17987,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -20930,7 +17995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -20938,7 +18003,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -20946,7 +18011,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -20954,7 +18019,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -20962,7 +18027,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -20970,7 +18035,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -20978,7 +18043,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -20986,7 +18051,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -20994,7 +18059,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -21004,10 +18069,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>